--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9100000262260437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,106 +511,98 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0.800000011920929</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>0.800000011920929</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8550000190734863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0.800000011920929</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.8550000190734863</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>0.800000011920929</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.8550000190734863</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.9100000262260437</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8899999856948853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.8550000190734863</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9100000262260437</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.8899999856948853</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8799999952316284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
+        <v>0.8550000190734863</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.9100000262260437</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.8899999856948853</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.8799999952316284</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.8899999856948853</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8799999952316284</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9399999976158142</v>
       </c>
       <c r="E12" t="n">
         <v>0.9399999976158142</v>
@@ -610,212 +610,263 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.8799999952316284</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9399999976158142</v>
       </c>
       <c r="D13" t="n">
         <v>0.9399999976158142</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="C14" t="n">
         <v>0.9399999976158142</v>
       </c>
       <c r="D14" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9900000095367432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
         <v>0.9399999976158142</v>
       </c>
       <c r="C15" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.9900000095367432</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.9900000095367432</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.9599999785423279</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.9900000095367432</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.9399999976158142</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
+        <v>0.9900000095367432</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.9399999976158142</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.9599999785423279</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.9399999976158142</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.9300000071525574</v>
-      </c>
       <c r="E19" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.9300000071525574</v>
-      </c>
       <c r="D20" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9200000166893005</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="C21" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.9200000166893005</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.9300000071525574</v>
-      </c>
       <c r="E21" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.9200000166893005</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.9300000071525574</v>
-      </c>
       <c r="D22" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9200000166893005</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="C23" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.9200000166893005</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.9300000071525574</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.9200000166893005</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9599999785423279</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -828,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,338 +911,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9331054091453552</v>
+        <v>0.9390645623207092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9392337799072266</v>
+        <v>0.9010719656944275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9637378454208374</v>
+        <v>0.9265585541725159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9617431163787842</v>
+        <v>0.9332038164138794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9700974822044373</v>
+        <v>0.9536731839179993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9652599096298218</v>
+        <v>0.9238566160202026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9467925429344177</v>
+        <v>0.9458354711532593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9485564231872559</v>
+        <v>0.983431339263916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9211945533752441</v>
+        <v>0.9324711561203003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9238533973693848</v>
+        <v>0.9338924288749695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9485564231872559</v>
+        <v>0.9494580030441284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9419988393783569</v>
+        <v>0.9523799419403076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9226534366607666</v>
+        <v>0.9338924288749695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9383871555328369</v>
+        <v>0.9500158429145813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9419357776641846</v>
+        <v>0.9539821147918701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9145064949989319</v>
+        <v>0.9235985279083252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9377529621124268</v>
+        <v>0.9247982501983643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9272828698158264</v>
+        <v>0.9542021155357361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9439026713371277</v>
+        <v>0.9703440070152283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9201885461807251</v>
+        <v>0.9262409210205078</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9247331023216248</v>
+        <v>0.9552950263023376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8901413679122925</v>
+        <v>0.978348970413208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9549214243888855</v>
+        <v>0.9273743629455566</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9407126903533936</v>
+        <v>0.9594995379447937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8910070061683655</v>
+        <v>0.9298514723777771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9650719165802002</v>
+        <v>0.9324035048484802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9402101635932922</v>
+        <v>0.9609825015068054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8755723834037781</v>
+        <v>0.9192366003990173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8547173738479614</v>
+        <v>0.9696776270866394</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9412828683853149</v>
+        <v>0.964552104473114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8842461109161377</v>
+        <v>0.9020013213157654</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8554320335388184</v>
+        <v>0.8734444975852966</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9423693418502808</v>
+        <v>0.9737583994865417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8756271004676819</v>
+        <v>0.9053716659545898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8539235591888428</v>
+        <v>0.8861104846000671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9392960667610168</v>
+        <v>0.9774169325828552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8812495470046997</v>
+        <v>0.9051743149757385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8484156131744385</v>
+        <v>0.8747488856315613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9484936594963074</v>
+        <v>0.9723166823387146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9255339503288269</v>
+        <v>0.9030652046203613</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9046325087547302</v>
+        <v>0.8658755421638489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8934651613235474</v>
+        <v>0.9725478291511536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8850895166397095</v>
+        <v>0.9597654342651367</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8472707271575928</v>
+        <v>0.9073982238769531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8991075158119202</v>
+        <v>0.9658127427101135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8788704872131348</v>
+        <v>0.9038625359535217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8529659509658813</v>
+        <v>0.86891108751297</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8987040519714355</v>
+        <v>0.9443132281303406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8781142830848694</v>
+        <v>0.902447521686554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8280209302902222</v>
+        <v>0.8639088869094849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8959306478500366</v>
+        <v>0.9424864649772644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8812883496284485</v>
+        <v>0.9024370908737183</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8635314702987671</v>
+        <v>0.8554031252861023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.901294469833374</v>
+        <v>0.941687285900116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8658666014671326</v>
+        <v>0.9155833721160889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8684901595115662</v>
+        <v>0.8856549859046936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9043318033218384</v>
+        <v>0.9355791211128235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9043569564819336</v>
+        <v>0.902482807636261</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9345496296882629</v>
+        <v>0.8878909349441528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9070193767547607</v>
+        <v>0.9187366366386414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9105862975120544</v>
+        <v>0.938207745552063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9388025403022766</v>
+        <v>0.9175931215286255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9110890626907349</v>
+        <v>0.9062663912773132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9219541549682617</v>
+        <v>0.935770571231842</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9176174998283386</v>
+        <v>0.9142046570777893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8977692127227783</v>
+        <v>0.9078320860862732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>0.906208872795105</v>
+        <v>0.9414821863174438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9209662675857544</v>
+        <v>0.8981413245201111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9235112071037292</v>
+        <v>0.9230667948722839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9445458054542542</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.918157696723938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9223628640174866</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.9071508049964905</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9199241399765015</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9233761429786682</v>
+      <c r="B26" t="n">
+        <v>0.9364307522773743</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9106079936027527</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9294876456260681</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9067181348800659</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8806771636009216</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9415416121482849</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9072393774986267</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8856983780860901</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9461709856987</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_136_200G_CAT_I_CAISSE.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_136_200G_CAT_I_CAISSE.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+1</t>
+          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+2</t>
+          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+3</t>
+          <t>PRIX EXP POMME GALA FRANCE 136/200G CAT.I CAISSE_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>0.9200000166893005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9300000071525574</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9100000262260437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -487,46 +487,74 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -534,12 +562,14 @@
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
       <c r="D8" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8550000190734863</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -548,13 +578,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8550000190734863</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9100000262260437</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -565,13 +595,13 @@
         <v>0.800000011920929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8550000190734863</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9100000262260437</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8899999856948853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +612,13 @@
         <v>0.8550000190734863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9100000262260437</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8899999856948853</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8799999952316284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +629,13 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8899999856948853</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8799999952316284</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9399999976158142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +646,13 @@
         <v>0.8899999856948853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8799999952316284</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9399999976158142</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -633,13 +663,13 @@
         <v>0.8799999952316284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9399999976158142</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -650,13 +680,13 @@
         <v>0.9399999976158142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -667,13 +697,13 @@
         <v>0.9399999976158142</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9599999785423279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -684,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9599999785423279</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +731,13 @@
         <v>0.9900000095367432</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9599999785423279</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -718,13 +748,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -735,13 +765,13 @@
         <v>0.9399999976158142</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -752,13 +782,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -769,13 +799,13 @@
         <v>0.9300000071525574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -786,13 +816,13 @@
         <v>0.9200000166893005</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -803,13 +833,13 @@
         <v>0.9300000071525574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9200000166893005</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9599999785423279</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -820,13 +850,13 @@
         <v>0.9200000166893005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9300000071525574</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9599999785423279</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -837,12 +867,14 @@
         <v>0.9300000071525574</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9599999785423279</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -852,10 +884,14 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -864,9 +900,15 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -914,13 +956,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9390645623207092</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9010719656944275</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9265585541725159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -928,13 +970,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9332038164138794</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9536731839179993</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9238566160202026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -942,13 +984,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9458354711532593</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.983431339263916</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9324711561203003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -956,13 +998,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9338924288749695</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9494580030441284</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9523799419403076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -970,13 +1012,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9338924288749695</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9500158429145813</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9539821147918701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -984,13 +1026,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9235985279083252</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9247982501983643</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9542021155357361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -998,13 +1040,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9703440070152283</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9262409210205078</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9552950263023376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1012,13 +1054,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.978348970413208</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9273743629455566</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9594995379447937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1026,13 +1068,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9298514723777771</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9324035048484802</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9609825015068054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1040,13 +1082,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9192366003990173</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9696776270866394</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.964552104473114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1096,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9020013213157654</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8734444975852966</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9737583994865417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1068,13 +1110,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9053716659545898</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8861104846000671</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9774169325828552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1082,13 +1124,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9051743149757385</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8747488856315613</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9723166823387146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1096,13 +1138,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9030652046203613</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8658755421638489</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9725478291511536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1110,13 +1152,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9597654342651367</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9073982238769531</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9658127427101135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1124,13 +1166,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9038625359535217</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.86891108751297</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9443132281303406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1138,13 +1180,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>0.902447521686554</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8639088869094849</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9424864649772644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1152,13 +1194,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9024370908737183</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8554031252861023</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.941687285900116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1166,13 +1208,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9155833721160889</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8856549859046936</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9355791211128235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1180,13 +1222,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.902482807636261</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8878909349441528</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9187366366386414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1194,13 +1236,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.938207745552063</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9175931215286255</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9062663912773132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1208,13 +1250,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.935770571231842</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9142046570777893</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9078320860862732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1222,13 +1264,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9414821863174438</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8981413245201111</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9230667948722839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1236,13 +1278,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9445458054542542</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.918157696723938</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9223628640174866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1250,13 +1292,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9364307522773743</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9106079936027527</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9294876456260681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1264,13 +1306,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9067181348800659</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8806771636009216</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9415416121482849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1278,13 +1320,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9072393774986267</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8856983780860901</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9461709856987</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
